--- a/MilestoneSubmissions/DatabaseDiagram.xlsx
+++ b/MilestoneSubmissions/DatabaseDiagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boston Abrams\Documents\GitHub\biteBusters\MilestoneSubmissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86BEB3F5-6C04-492D-A75E-61DEF7992DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80967435-C101-476F-A376-B2F694677939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{920413FC-81D6-4504-A5CF-64F1CD7C92A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -96,6 +96,36 @@
   </si>
   <si>
     <t>Percent Degree Completion</t>
+  </si>
+  <si>
+    <t>GPA Shown/Hidden</t>
+  </si>
+  <si>
+    <t>Major Requirments</t>
+  </si>
+  <si>
+    <t>Major Code</t>
+  </si>
+  <si>
+    <t>Major Name</t>
+  </si>
+  <si>
+    <t>Major Description</t>
+  </si>
+  <si>
+    <t>Major to Classes</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Class Req</t>
+  </si>
+  <si>
+    <t>OR what line</t>
   </si>
 </sst>
 </file>
@@ -154,11 +184,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151E43CE-9070-4546-A0FA-7F6DF546B0B3}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,130 +537,187 @@
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="3.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
